--- a/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Grupo 1</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Ponderado</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -336,11 +339,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -378,6 +390,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,9 +710,10 @@
     <col min="10" max="10" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -714,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -722,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -730,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -738,7 +753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -764,8 +779,11 @@
       <c r="L6" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -794,8 +812,12 @@
         <f>SUM(G7:K7)</f>
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="20">
+        <f>L7*10/100</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -824,8 +846,12 @@
         <f t="shared" ref="L8:L12" si="0">SUM(G8:K8)</f>
         <v>93</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="20">
+        <f t="shared" ref="M8:M12" si="1">L8*10/100</f>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -854,8 +880,12 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="20">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
@@ -884,8 +914,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>19</v>
       </c>
@@ -914,8 +948,12 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="20">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
@@ -944,8 +982,12 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="20">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>

--- a/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
@@ -76,7 +76,7 @@
     <t>Ponderado</t>
   </si>
   <si>
-    <t>Hartman Medardo Lituana</t>
+    <t>Hartman Medardo Tituana</t>
   </si>
   <si>
     <t>Yarleny Zambrano</t>
@@ -249,7 +249,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,10 +282,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,14 +291,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,8 +317,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -415,7 +403,7 @@
       <c r="L6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -429,26 +417,26 @@
       <c r="F7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="n">
+      <c r="G7" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="H7" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I7" s="9" t="n">
+      <c r="H7" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J7" s="9" t="n">
+      <c r="J7" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="8" t="n">
         <f aca="false">SUM(G7:K7)</f>
         <v>95</v>
       </c>
-      <c r="M7" s="10" t="n">
+      <c r="M7" s="9" t="n">
         <f aca="false">L7*10/100</f>
         <v>9.5</v>
       </c>
@@ -463,194 +451,194 @@
       <c r="F8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="9" t="n">
+      <c r="G8" s="8" t="n">
         <v>8</v>
       </c>
-      <c r="H8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I8" s="9" t="n">
+      <c r="H8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="K8" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L8" s="9" t="n">
+      <c r="K8" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8" t="n">
         <f aca="false">SUM(G8:K8)</f>
         <v>93</v>
       </c>
-      <c r="M8" s="10" t="n">
+      <c r="M8" s="9" t="n">
         <f aca="false">L8*10/100</f>
         <v>9.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="9" t="n">
+      <c r="G9" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I9" s="9" t="n">
+      <c r="H9" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="8" t="n">
         <v>50</v>
       </c>
-      <c r="K9" s="9" t="n">
+      <c r="K9" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="8" t="n">
         <f aca="false">SUM(G9:K9)</f>
         <v>81</v>
       </c>
-      <c r="M9" s="10" t="n">
+      <c r="M9" s="9" t="n">
         <f aca="false">L9*10/100</f>
         <v>8.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="9" t="n">
+      <c r="G10" s="8" t="n">
         <v>10</v>
       </c>
-      <c r="H10" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" s="9" t="n">
+      <c r="H10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="8" t="n">
         <v>55</v>
       </c>
-      <c r="K10" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L10" s="9" t="n">
+      <c r="K10" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8" t="n">
         <f aca="false">SUM(G10:K10)</f>
         <v>90</v>
       </c>
-      <c r="M10" s="10" t="n">
+      <c r="M10" s="9" t="n">
         <f aca="false">L10*10/100</f>
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="9" t="n">
+      <c r="G11" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="H11" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="9" t="n">
+      <c r="H11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="9" t="n">
+      <c r="J11" s="8" t="n">
         <v>58</v>
       </c>
-      <c r="K11" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" s="9" t="n">
+      <c r="K11" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8" t="n">
         <f aca="false">SUM(G11:K11)</f>
         <v>92</v>
       </c>
-      <c r="M11" s="10" t="n">
+      <c r="M11" s="9" t="n">
         <f aca="false">L11*10/100</f>
         <v>9.2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9" t="n">
+      <c r="G12" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="8" t="n">
         <v>18</v>
       </c>
-      <c r="J12" s="9" t="n">
+      <c r="J12" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="K12" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L12" s="9" t="n">
+      <c r="K12" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8" t="n">
         <f aca="false">SUM(G12:K12)</f>
         <v>82</v>
       </c>
-      <c r="M12" s="10" t="n">
+      <c r="M12" s="9" t="n">
         <f aca="false">L12*10/100</f>
         <v>8.2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="11"/>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="H13" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="I13" s="9" t="n">
+      <c r="H13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <v>20</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="K13" s="9" t="n">
-        <v>5</v>
-      </c>
-      <c r="L13" s="9" t="n">
+      <c r="K13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8" t="n">
         <f aca="false">SUM(G13:K13)</f>
         <v>81</v>
       </c>
-      <c r="M13" s="10" t="n">
+      <c r="M13" s="9" t="n">
         <f aca="false">L13*10/100</f>
         <v>8.1</v>
       </c>

--- a/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
+++ b/2015-2016/clases/informatica_basica/b/exposicion/exposicion_tics.xlsx
@@ -317,21 +317,17 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.1417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="true" max="5" min="3" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.1376518218624"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.004048582996"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1417004048583"/>
+    <col collapsed="false" hidden="true" max="11" min="7" style="0" width="0"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="6.57085020242915"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.1417004048583"/>
